--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230010.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 09:00:03</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 10:45:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 10:45:22</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 11:35:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235510.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 11:35:57</t>
+    <t>Informação extraída do SIGBM: 10/01/2023 - 11:55:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235510.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 10/01/2023 - 11:55:45</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 12:13:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 12:13:22</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 12:28:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 12:28:32</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 12:38:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 12:38:06</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 12:46:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 12:46:37</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 12:55:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 12:55:47</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 01:16:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 01:16:33</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 01:33:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 01:33:59</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 01:44:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 01:44:37</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 01:53:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 01:53:00</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:08:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:08:07</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:24:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:24:21</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:34:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:34:04</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:42:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:42:24</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:51:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:51:31</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 03:00:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 03:00:27</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 03:33:23</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -47410,7 +47410,7 @@
         <v>46</v>
       </c>
       <c r="Q592" s="0" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="R592" s="0" t="s">
         <v>33</v>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 03:33:23</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:14:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:14:05</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:24:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:24:50</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:34:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:34:15</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:43:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:43:21</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:52:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:52:20</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:09:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:09:50</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:31:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:31:01</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:43:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:43:37</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:52:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:52:36</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:08:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:08:38</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:28:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:28:38</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:41:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:41:11</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:50:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:50:36</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:58:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:58:47</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:24:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:24:32</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:40:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:40:17</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:48:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:48:26</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:57:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:57:25</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:13:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:13:44</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:25:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:25:12</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:36:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:36:03</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:44:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:44:10</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:53:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:53:30</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 09:15:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 09:15:48</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 09:51:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 09:51:50</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 10:15:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 10:15:50</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 10:36:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 10:36:48</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 10:46:13</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -47410,7 +47410,7 @@
         <v>46</v>
       </c>
       <c r="Q592" s="0" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="R592" s="0" t="s">
         <v>33</v>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 10:46:13</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 10:55:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 10:55:08</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 11:14:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 11:14:51</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 11:41:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 11:41:45</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 11:56:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 11:56:28</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 12:27:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 12:27:51</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 12:54:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 12:54:23</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 01:18:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 01:18:40</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 01:52:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231111.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 01:52:40</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:11:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231111.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:11:38</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:32:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:32:29</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:42:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:42:18</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 02:50:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 02:50:57</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 03:00:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 03:00:21</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 03:29:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 03:29:06</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 03:44:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 03:44:23</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 03:53:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 03:53:18</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:07:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:07:06</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:20:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232911.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:20:04</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:29:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232911.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:29:59</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:38:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:38:37</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:47:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:47:47</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 04:56:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 04:56:01</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:14:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:14:10</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:28:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233811.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:28:44</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:38:25</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4706,7 +4706,7 @@
     <t>-59°15'24.414"</t>
   </si>
   <si>
-    <t>8.214.937,95</t>
+    <t>8.259.469,02</t>
   </si>
   <si>
     <t>Barragem Eustáquio</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233811.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:38:25</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:47:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:47:30</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 05:56:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 05:56:35</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:13:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:13:04</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:25:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:25:34</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:35:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:35:01</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:44:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:44:31</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 06:52:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235211.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230711.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 06:52:55</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:07:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230711.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:07:45</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:26:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:26:21</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:36:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:36:55</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:45:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235411.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:45:26</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 07:54:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235411.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231011.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 07:54:33</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:10:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231011.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232611.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:10:56</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:26:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232611.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233511.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:26:16</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:35:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233511.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:35:19</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:43:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-11.xlsx
+++ b/sigbm_download_2023-01-11.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234311.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235311.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 11/01/2023 - 08:43:40</t>
+    <t>Informação extraída do SIGBM: 11/01/2023 - 08:53:22</t>
   </si>
   <si>
     <t>ID Barragem</t>
